--- a/metadata-fields.xlsx
+++ b/metadata-fields.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kellyt\Documents\Projects\metadata-convert-to-iso10115-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB458B1-6C5C-4FCB-AA94-789128F41572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA4EC98-0CDC-41CA-92AD-CC6A0C77E288}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{0A7BB8DD-E39D-4E57-ABB9-FAA17C59773D}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{0A7BB8DD-E39D-4E57-ABB9-FAA17C59773D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>/mdb:MD_Metadata/mdb:metadataIdentifier/mcc:MD_Identifier/mcc:code/gco:CharacterString</t>
   </si>
@@ -254,6 +254,18 @@
   </si>
   <si>
     <t>misses 'notes': 26</t>
+  </si>
+  <si>
+    <t>/metadata/dataIdInfo/idCredit</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>/mdb:MD_Metadata/mdb:identificationInfo/mri:MD_DataIdentification/mri:credit/gco:CharacterString</t>
+  </si>
+  <si>
+    <t>organization.title</t>
   </si>
 </sst>
 </file>
@@ -628,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6EF0DC-A8A7-405E-8F4C-BBD1090DC223}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,6 +779,20 @@
       </c>
       <c r="D9" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/metadata-fields.xlsx
+++ b/metadata-fields.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kellyt\Documents\Projects\metadata-convert-to-iso10115-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA4EC98-0CDC-41CA-92AD-CC6A0C77E288}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB7455A-0933-420E-8C31-9E174115D67F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{0A7BB8DD-E39D-4E57-ABB9-FAA17C59773D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{0A7BB8DD-E39D-4E57-ABB9-FAA17C59773D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>/mdb:MD_Metadata/mdb:metadataIdentifier/mcc:MD_Identifier/mcc:code/gco:CharacterString</t>
   </si>
@@ -266,6 +266,15 @@
   </si>
   <si>
     <t>organization.title</t>
+  </si>
+  <si>
+    <t>tags[*].name</t>
+  </si>
+  <si>
+    <t>/mdb:MD_Metadata/mdb:identificationInfo/mri:MD_DataIdentification/mri:descriptiveKeywords/mri:MD_Keywords/mri:keyword[*]/gco:CharacterString</t>
+  </si>
+  <si>
+    <t>keywords</t>
   </si>
 </sst>
 </file>
@@ -640,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6EF0DC-A8A7-405E-8F4C-BBD1090DC223}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,6 +802,17 @@
       </c>
       <c r="D10" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/metadata-fields.xlsx
+++ b/metadata-fields.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kellyt\Documents\Projects\metadata-convert-to-iso10115-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB7455A-0933-420E-8C31-9E174115D67F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC666084-226B-4E5D-BF6C-D1C720E0F4B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{0A7BB8DD-E39D-4E57-ABB9-FAA17C59773D}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{0A7BB8DD-E39D-4E57-ABB9-FAA17C59773D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>/mdb:MD_Metadata/mdb:metadataIdentifier/mcc:MD_Identifier/mcc:code/gco:CharacterString</t>
   </si>
@@ -276,12 +276,27 @@
   <si>
     <t>keywords</t>
   </si>
+  <si>
+    <t>/metadata/dataIdInfo/searchKeys/keyword[*]</t>
+  </si>
+  <si>
+    <t>alternateTitle</t>
+  </si>
+  <si>
+    <t>/metadata/dataIdInfo/idCitation/resAltTitle</t>
+  </si>
+  <si>
+    <t>/mdb:MD_Metadata/mdb:identificationInfo/mri:MD_DataIdentification/mri:citation/cit:CI_Citation/cit:alternateTitle/gco:CharacterString</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +323,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -329,12 +350,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6EF0DC-A8A7-405E-8F4C-BBD1090DC223}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,6 +837,23 @@
       </c>
       <c r="C11" t="s">
         <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/metadata-fields.xlsx
+++ b/metadata-fields.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kellyt\Documents\Projects\metadata-convert-to-iso10115-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC666084-226B-4E5D-BF6C-D1C720E0F4B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16C51DC-C604-4D92-B313-0FD0B62437D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{0A7BB8DD-E39D-4E57-ABB9-FAA17C59773D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>/mdb:MD_Metadata/mdb:metadataIdentifier/mcc:MD_Identifier/mcc:code/gco:CharacterString</t>
   </si>
@@ -291,12 +291,36 @@
   <si>
     <t>name</t>
   </si>
+  <si>
+    <t>maintenance frequency</t>
+  </si>
+  <si>
+    <t>/mdb:MD_Metadata/mdb:identificationInfo/mri:MD_DataIdentification/mri:resourceMaintenance/mmi:MD_MaintenanceInformation/mmi:maintenanceAndUpdateFrequency/mmi:MD_MaintenanceFrequencyCode/@codeListValue</t>
+  </si>
+  <si>
+    <t>update_frequency</t>
+  </si>
+  <si>
+    <t>/metadata/dataIdInfo/resMaint/maintFreq/MaintFreqCd/@value</t>
+  </si>
+  <si>
+    <t>geographic extent</t>
+  </si>
+  <si>
+    <t>/mdb:MD_Metadata/mdb:identificationInfo/mri:MD_DataIdentification/mri:extent/gex:EX_Extent/gex:geographicElement/gex:EX_GeographicBoundingBox</t>
+  </si>
+  <si>
+    <t>derived from "spatial"</t>
+  </si>
+  <si>
+    <t>/metadata/dataIdInfo/dataExt/geoEle/GeoBndBox</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,12 +346,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF569CD6"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -356,9 +374,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,17 +689,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6EF0DC-A8A7-405E-8F4C-BBD1090DC223}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="172.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="212.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="84.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="152" bestFit="1" customWidth="1"/>
   </cols>
@@ -842,18 +858,46 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
